--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/72.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/72.xlsx
@@ -479,13 +479,13 @@
         <v>-4.152038899058361</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.443388692720187</v>
+        <v>-4.570141084751824</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.962664597200258</v>
+        <v>-6.74071835246292</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.101118736230072</v>
+        <v>-8.151871516515516</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.100465893179294</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.411778727884365</v>
+        <v>-5.55409771778026</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.510675912353971</v>
+        <v>-6.232740760976723</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.274749279667342</v>
+        <v>-9.241914709549141</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.133115031519431</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.459893798027325</v>
+        <v>-6.542307786782911</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.086202558154682</v>
+        <v>-5.815791588345616</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.43629908713646</v>
+        <v>-10.42158317646705</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.239265178170515</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.211123926176875</v>
+        <v>-7.303819496373583</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.445791548657493</v>
+        <v>-5.187153307383958</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.31802169757084</v>
+        <v>-11.32292048245149</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.389177964853974</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.159068134623617</v>
+        <v>-8.213546338141649</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.159535307592756</v>
+        <v>-4.880025896004361</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.44338796521792</v>
+        <v>-12.48325292721075</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.556067885951925</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.677273528475398</v>
+        <v>-8.772931836833457</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.851400760798573</v>
+        <v>-4.561692880885794</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.4669699989027</v>
+        <v>-13.51567917431778</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.715731051273452</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.442295544996517</v>
+        <v>-9.557837444282317</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.53758029901817</v>
+        <v>-4.250947604424681</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.5420626089373</v>
+        <v>-14.52918007584298</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.848132796898175</v>
       </c>
       <c r="E9" t="n">
-        <v>-9.68621298659377</v>
+        <v>-9.822782504414173</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.318572347407848</v>
+        <v>-4.055455775844219</v>
       </c>
       <c r="G9" t="n">
-        <v>-15.07992669940095</v>
+        <v>-15.07019757573579</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.94037897687349</v>
       </c>
       <c r="E10" t="n">
-        <v>-9.883503969701255</v>
+        <v>-10.02565673336368</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.262250988300988</v>
+        <v>-4.039737618767088</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.80031208322713</v>
+        <v>-15.75073266458975</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.993065855707076</v>
       </c>
       <c r="E11" t="n">
-        <v>-10.07471791727317</v>
+        <v>-10.16649924318576</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.596996399471788</v>
+        <v>-4.381748094142123</v>
       </c>
       <c r="G11" t="n">
-        <v>-15.7655756894377</v>
+        <v>-15.72440536261141</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.012221777952625</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.55211477080681</v>
+        <v>-10.6333749539418</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.135043918630728</v>
+        <v>-3.938525398608215</v>
       </c>
       <c r="G12" t="n">
-        <v>-15.53519101884807</v>
+        <v>-15.43843268394495</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.00708042194388</v>
       </c>
       <c r="E13" t="n">
-        <v>-11.13425859646411</v>
+        <v>-11.19210043670658</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.319403478575223</v>
+        <v>-4.127382844870272</v>
       </c>
       <c r="G13" t="n">
-        <v>-14.88528066900846</v>
+        <v>-14.75809315536567</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.99537950803901</v>
       </c>
       <c r="E14" t="n">
-        <v>-11.55315359382825</v>
+        <v>-11.63927344978895</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.537555853983836</v>
+        <v>-4.379386703825404</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.95385641476503</v>
+        <v>-13.75730367169445</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.990836886620255</v>
       </c>
       <c r="E15" t="n">
-        <v>-12.11848412487022</v>
+        <v>-12.20639335734422</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.348253508096889</v>
+        <v>-4.198884570298904</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.30595798218894</v>
+        <v>-12.07458573221219</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.000695141771217</v>
       </c>
       <c r="E16" t="n">
-        <v>-12.61444942648441</v>
+        <v>-12.71638033065272</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.242543401620454</v>
+        <v>-4.107059243324507</v>
       </c>
       <c r="G16" t="n">
-        <v>-10.95231420591187</v>
+        <v>-10.68421573635085</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.030585429855654</v>
       </c>
       <c r="E17" t="n">
-        <v>-13.26711717619695</v>
+        <v>-13.32863066059648</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.868959719898882</v>
+        <v>-3.751814226360733</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.687640576598909</v>
+        <v>-9.389900058403789</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.086053482072597</v>
       </c>
       <c r="E18" t="n">
-        <v>-13.84346263971009</v>
+        <v>-13.95090345461741</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.689425609732031</v>
+        <v>-3.579242061972369</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.99196676891933</v>
+        <v>-7.702977573015987</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.168858722132872</v>
       </c>
       <c r="E19" t="n">
-        <v>-14.76851162899907</v>
+        <v>-14.82874908260633</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.286869673317121</v>
+        <v>-3.216771092859295</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.259772079943896</v>
+        <v>-6.002390313435159</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.27765520068291</v>
       </c>
       <c r="E20" t="n">
-        <v>-15.7884953536298</v>
+        <v>-15.80876517610003</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.859922481643173</v>
+        <v>-2.742288087418332</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.780373269036033</v>
+        <v>-4.484959918109564</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.417632689596935</v>
       </c>
       <c r="E21" t="n">
-        <v>-16.29255196160873</v>
+        <v>-16.29179416554436</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.477680368760294</v>
+        <v>-2.36732570576029</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.877227030510835</v>
+        <v>-3.551712064304771</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.585266455160943</v>
       </c>
       <c r="E22" t="n">
-        <v>-17.13857504390089</v>
+        <v>-17.11474113542468</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.438323863481629</v>
+        <v>-2.324537117661051</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.020130347665109</v>
+        <v>-2.701015091447836</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.772218011219155</v>
       </c>
       <c r="E23" t="n">
-        <v>-17.42213255317509</v>
+        <v>-17.45680538987526</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.242387135276279</v>
+        <v>-2.124082947110671</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.474869189811818</v>
+        <v>-2.172655230333471</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.97737412298143</v>
       </c>
       <c r="E24" t="n">
-        <v>-17.9939899083844</v>
+        <v>-17.98845555261105</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.185063529761701</v>
+        <v>-2.100703716273083</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.47366160511569</v>
+        <v>-2.202986628935811</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.199457121975123</v>
       </c>
       <c r="E25" t="n">
-        <v>-18.75326245283003</v>
+        <v>-18.75204997912703</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.960486999329963</v>
+        <v>-1.8949303062515</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.564235346332157</v>
+        <v>-2.2867890956416</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.438886353943031</v>
       </c>
       <c r="E26" t="n">
-        <v>-19.00111065594828</v>
+        <v>-18.99743901179123</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.946900449246806</v>
+        <v>-1.838198270567819</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.490137558257194</v>
+        <v>-2.224307587882427</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.696248681794025</v>
       </c>
       <c r="E27" t="n">
-        <v>-19.16617819479593</v>
+        <v>-19.17781892014606</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.19863052381739</v>
+        <v>-2.101828187852474</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.9037768732394</v>
+        <v>-2.674800236627438</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.971528162928618</v>
       </c>
       <c r="E28" t="n">
-        <v>-19.18608134175114</v>
+        <v>-19.21874968563587</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.131010669841089</v>
+        <v>-2.05174031250093</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.587304034295912</v>
+        <v>-3.38523649147945</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.258572071719536</v>
       </c>
       <c r="E29" t="n">
-        <v>-19.13214092898847</v>
+        <v>-19.16254566269381</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.482720934840084</v>
+        <v>-2.402267437838131</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.357752848439304</v>
+        <v>-4.093355357076544</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.545659458895909</v>
       </c>
       <c r="E30" t="n">
-        <v>-18.88321225535263</v>
+        <v>-18.94172877854273</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.525885976468076</v>
+        <v>-2.478462609859001</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.168584859303415</v>
+        <v>-4.858763605140147</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.830905034917636</v>
       </c>
       <c r="E31" t="n">
-        <v>-19.02777529940044</v>
+        <v>-19.08301618798971</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.585062515585214</v>
+        <v>-2.543872632731456</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.839019259970328</v>
+        <v>-5.52870910512037</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.108137212784225</v>
       </c>
       <c r="E32" t="n">
-        <v>-19.13753350356268</v>
+        <v>-19.16457460054358</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.760993427691149</v>
+        <v>-2.738122653567721</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.594942834712117</v>
+        <v>-6.33741928700424</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.359388279216061</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.01636435737306</v>
+        <v>-19.05761290830922</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.814503607849533</v>
+        <v>-2.782739730235186</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.462149983758624</v>
+        <v>-7.220012140660927</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.568371338079949</v>
       </c>
       <c r="E34" t="n">
-        <v>-18.36701624332315</v>
+        <v>-18.44733773713969</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.85010046684754</v>
+        <v>-2.766371335244755</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.968929768562426</v>
+        <v>-7.729539547323936</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.72081081651711</v>
       </c>
       <c r="E35" t="n">
-        <v>-17.93859746058225</v>
+        <v>-18.02990944183563</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.79574448850118</v>
+        <v>-2.770473212006097</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.345344185259941</v>
+        <v>-8.133014617029826</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.802340921803699</v>
       </c>
       <c r="E36" t="n">
-        <v>-17.57058724668897</v>
+        <v>-17.67149145941523</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.055013411660547</v>
+        <v>-2.992976803526263</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.539833767432686</v>
+        <v>-8.352760808677052</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.803165440990041</v>
       </c>
       <c r="E37" t="n">
-        <v>-17.21116701786085</v>
+        <v>-17.33152458891056</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.678510992839427</v>
+        <v>-2.607639949296627</v>
       </c>
       <c r="G37" t="n">
-        <v>-8.822364585264834</v>
+        <v>-8.656568584394014</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.723376550178177</v>
       </c>
       <c r="E38" t="n">
-        <v>-16.72518995727577</v>
+        <v>-16.83970516511951</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.778799190700453</v>
+        <v>-2.711277116861491</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.781032921211935</v>
+        <v>-8.622149976050933</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.565555923371472</v>
       </c>
       <c r="E39" t="n">
-        <v>-16.34160825651135</v>
+        <v>-16.43034862015273</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.675323360362198</v>
+        <v>-2.582652235199825</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.754378055773515</v>
+        <v>-8.624853596848336</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.333901332848447</v>
       </c>
       <c r="E40" t="n">
-        <v>-15.816113353421</v>
+        <v>-15.91670955871464</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.606945710321526</v>
+        <v>-2.501318716961828</v>
       </c>
       <c r="G40" t="n">
-        <v>-8.563442781593018</v>
+        <v>-8.38926213394544</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.044046782307429</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.16273180870589</v>
+        <v>-15.25327621588115</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.313610187313496</v>
+        <v>-2.200908801017372</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.6667963867596</v>
+        <v>-8.500091030611534</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.709490459380043</v>
       </c>
       <c r="E42" t="n">
-        <v>-14.68524206404177</v>
+        <v>-14.78140394010712</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.12275313724287</v>
+        <v>-2.007920143952771</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.150351035379906</v>
+        <v>-8.003079481527827</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.340193771401736</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.20198818028156</v>
+        <v>-14.32055637481798</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.360652211386951</v>
+        <v>-2.226033407306448</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.92076327290958</v>
+        <v>-7.716945465634764</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.947752207907568</v>
       </c>
       <c r="E44" t="n">
-        <v>-13.88840239083077</v>
+        <v>-13.95087412057621</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.259019536637523</v>
+        <v>-2.073970626724793</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.343870240627351</v>
+        <v>-7.130553093010118</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.541024999813614</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.32293007858966</v>
+        <v>-13.34047183522815</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.281777863603013</v>
+        <v>-2.110540398089316</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.7718271031571</v>
+        <v>-6.538083684849896</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.124361813506534</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.71177977519095</v>
+        <v>-12.68660627883321</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.402418997051006</v>
+        <v>-2.24549165463677</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.346048384124344</v>
+        <v>-6.085170977705762</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.700603369853051</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.33110214450549</v>
+        <v>-12.31315948930391</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.527856246235443</v>
+        <v>-2.359698855047903</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.330090665710734</v>
+        <v>-6.077446346856036</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.2790725131892</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.47788244410522</v>
+        <v>-11.52460668273233</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.626027504123094</v>
+        <v>-2.449837474653214</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.47776076456025</v>
+        <v>-5.230861028774178</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.868301974503923</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.14948296384768</v>
+        <v>-11.15944187083559</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.982098763247377</v>
+        <v>-2.821573111779092</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.01837501232432</v>
+        <v>-4.783086667847171</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.471935214824732</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.67172921281275</v>
+        <v>-10.67282435035094</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.145332924519934</v>
+        <v>-2.99732313063095</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.122114849033388</v>
+        <v>-4.886787392501304</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.101875875706942</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.2787997309188</v>
+        <v>-10.31523261009105</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.165025844179867</v>
+        <v>-3.015339120935532</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.834362571867375</v>
+        <v>-4.649743894558933</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.766945097715829</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.822098043452804</v>
+        <v>-9.873593952782018</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.191978939037169</v>
+        <v>-3.08210828771699</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.388050023993577</v>
+        <v>-4.20589540614606</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.472819971471837</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.675990073235051</v>
+        <v>-9.686491659985183</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.275180057898328</v>
+        <v>-3.136654937331159</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.448624819074653</v>
+        <v>-4.313698007561534</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.226169573013783</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.181149243200254</v>
+        <v>-9.176191790237203</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.344863072772466</v>
+        <v>-3.24471665611058</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.426643844201003</v>
+        <v>-4.323828029789782</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.032418624430225</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.628491017957321</v>
+        <v>-8.623347782733328</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.687694901301144</v>
+        <v>-3.516178762396033</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.744825300106695</v>
+        <v>-4.68008018216814</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.887028513772179</v>
       </c>
       <c r="E56" t="n">
-        <v>-8.532466034084244</v>
+        <v>-8.508519678450096</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.774235211852405</v>
+        <v>-3.62375646949563</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.009301015579326</v>
+        <v>-4.975625536280016</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.777806376205285</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.203944328655028</v>
+        <v>-8.208236876684179</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.701535679741379</v>
+        <v>-3.598123406492395</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.097185803018989</v>
+        <v>-5.120227692382759</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.697750728523642</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.842060040365983</v>
+        <v>-7.837029252299928</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.654488766661057</v>
+        <v>-3.565259502332992</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.715112269935236</v>
+        <v>-5.730233968174604</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.64302018708957</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.584414267486433</v>
+        <v>-7.598704834558426</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.831534372332648</v>
+        <v>-3.719952568609048</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.239961824119157</v>
+        <v>-6.248600699252996</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.610949612723183</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.534590398505703</v>
+        <v>-7.570133478428175</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.873550497346915</v>
+        <v>-3.819409635302699</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.783565608644563</v>
+        <v>-6.798496635616121</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.601345449999578</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.397316863696465</v>
+        <v>-7.429056296276476</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.968275005393392</v>
+        <v>-3.901398280460862</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.077849598984774</v>
+        <v>-7.082049255883454</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.610825078319474</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.131193552909683</v>
+        <v>-7.220388594189679</v>
       </c>
       <c r="F62" t="n">
-        <v>-4.085224938656864</v>
+        <v>-4.019428684241923</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.600411097954979</v>
+        <v>-7.569131232020457</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.631295493494605</v>
       </c>
       <c r="E63" t="n">
-        <v>-6.982201068640451</v>
+        <v>-7.089524547382967</v>
       </c>
       <c r="F63" t="n">
-        <v>-4.077558975889542</v>
+        <v>-4.011264042774175</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.592226900459763</v>
+        <v>-7.599105733121513</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.654685445935489</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.165084148511138</v>
+        <v>-7.292785007874956</v>
       </c>
       <c r="F64" t="n">
-        <v>-4.108486833329646</v>
+        <v>-4.035479293786005</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.852395400882642</v>
+        <v>-7.870528727352029</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.675664113329709</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.997562328216297</v>
+        <v>-7.132503806750017</v>
       </c>
       <c r="F65" t="n">
-        <v>-4.028087115403229</v>
+        <v>-3.979661502386437</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.163174900391825</v>
+        <v>-8.169823949730828</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.688615759834476</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.302044786880893</v>
+        <v>-7.406073074995109</v>
       </c>
       <c r="F66" t="n">
-        <v>-4.119790217205954</v>
+        <v>-4.038090023452938</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.170879975214083</v>
+        <v>-8.199353551206995</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.68658193591754</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.21560225646697</v>
+        <v>-7.364296511317321</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.428433220714294</v>
+        <v>-4.33489185232961</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.099554254032659</v>
+        <v>-8.11432394377761</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.6649859099156</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.451975960468574</v>
+        <v>-7.594099390089792</v>
       </c>
       <c r="F68" t="n">
-        <v>-4.225016312002563</v>
+        <v>-4.168934514232182</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.142831742818592</v>
+        <v>-8.115267522102926</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.616892311105206</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.693028444041816</v>
+        <v>-7.810188604600565</v>
       </c>
       <c r="F69" t="n">
-        <v>-4.286950250992643</v>
+        <v>-4.244587006490824</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.955895676255231</v>
+        <v>-7.905098894907985</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.5350231492064</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.048894364877688</v>
+        <v>-8.183214939539308</v>
       </c>
       <c r="F70" t="n">
-        <v>-4.044533734503531</v>
+        <v>-4.021071390549206</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.003495047111516</v>
+        <v>-7.963449191864615</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.416564964464242</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.379503676239077</v>
+        <v>-8.522037782437115</v>
       </c>
       <c r="F71" t="n">
-        <v>-4.120807130634272</v>
+        <v>-4.101295104228414</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.140959253188562</v>
+        <v>-8.029406783506165</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.262741806345661</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.915563723168834</v>
+        <v>-9.059339637111067</v>
       </c>
       <c r="F72" t="n">
-        <v>-4.150923412934468</v>
+        <v>-4.091707761762394</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.123393051515738</v>
+        <v>-7.960476675689531</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.077688038109381</v>
       </c>
       <c r="E73" t="n">
-        <v>-9.281271214827806</v>
+        <v>-9.444104477537275</v>
       </c>
       <c r="F73" t="n">
-        <v>-4.376262628437445</v>
+        <v>-4.335449199112438</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.877989351830942</v>
+        <v>-7.698870807247778</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.869137953865722</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.822997620716317</v>
+        <v>-9.946709050476732</v>
       </c>
       <c r="F74" t="n">
-        <v>-4.336563892678095</v>
+        <v>-4.282814151183232</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.570133478428175</v>
+        <v>-7.364985861285557</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.647018494383334</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.22211169629692</v>
+        <v>-10.35462822742465</v>
       </c>
       <c r="F75" t="n">
-        <v>-4.416044477313531</v>
+        <v>-4.365061913705342</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.241807333273634</v>
+        <v>-7.008063914966431</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.421998216330052</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.51586278488864</v>
+        <v>-10.70496468149404</v>
       </c>
       <c r="F76" t="n">
-        <v>-4.454281400019673</v>
+        <v>-4.411121247398548</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.021567351932849</v>
+        <v>-6.78731058790462</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.203512862747861</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.15732981986908</v>
+        <v>-11.31053662805759</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.636201345537579</v>
+        <v>-4.572233579690863</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.726466897445863</v>
+        <v>-6.529317695537518</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.001389954282998</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.69219206011644</v>
+        <v>-11.82679619717634</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.635365325363336</v>
+        <v>-4.555977631858371</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.696115942816055</v>
+        <v>-6.508651863511068</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8242346930851425</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.37722992429483</v>
+        <v>-12.4757971917387</v>
       </c>
       <c r="F79" t="n">
-        <v>-5.009252125510657</v>
+        <v>-4.92904307885205</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.461521837314009</v>
+        <v>-6.253377258961971</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6768543728668467</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.01002875010023</v>
+        <v>-13.09375299269615</v>
       </c>
       <c r="F80" t="n">
-        <v>-5.063798775124827</v>
+        <v>-4.94498613024506</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.130399180231593</v>
+        <v>-5.927011605561064</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5635032987476951</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.53652101059144</v>
+        <v>-13.59395706326395</v>
       </c>
       <c r="F81" t="n">
-        <v>-5.044394306870041</v>
+        <v>-4.94761641593946</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.780131172258338</v>
+        <v>-5.628997302981396</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4872168691298319</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.24371096488382</v>
+        <v>-14.28840137665429</v>
       </c>
       <c r="F82" t="n">
-        <v>-5.257872791713883</v>
+        <v>-5.143083799485587</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.799432971368918</v>
+        <v>-5.622216250456986</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4477931595967808</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.85968671806016</v>
+        <v>-14.86788069356911</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.531798957460261</v>
+        <v>-5.401712262745387</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.683661288760373</v>
+        <v>-5.536428846963228</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4427075316126122</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.77412656244794</v>
+        <v>-15.8075135903421</v>
       </c>
       <c r="F84" t="n">
-        <v>-5.69154236782984</v>
+        <v>-5.55812137043173</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.416569954613942</v>
+        <v>-5.254122923446959</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4722524958496904</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.89433492785042</v>
+        <v>-16.90287602284693</v>
       </c>
       <c r="F85" t="n">
-        <v>-5.726264094598669</v>
+        <v>-5.621135779939397</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.255570069479566</v>
+        <v>-5.146867890800578</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5360725350339686</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.06272445592636</v>
+        <v>-18.01514464109754</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.989248662976891</v>
+        <v>-5.846739001813187</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.043181833167046</v>
+        <v>-4.969748950025984</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.6334394736029967</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.18298660040438</v>
+        <v>-19.14811820342955</v>
       </c>
       <c r="F87" t="n">
-        <v>-6.131484539756047</v>
+        <v>-6.018656039281384</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.149014164815155</v>
+        <v>-5.094946637873942</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.7667911011707762</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.1395794619987</v>
+        <v>-20.14622362233083</v>
       </c>
       <c r="F88" t="n">
-        <v>-6.207762824893654</v>
+        <v>-6.14019674999289</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.259803949426314</v>
+        <v>-5.187774211256056</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.937437697613281</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.1484260289866</v>
+        <v>-21.13725464829569</v>
       </c>
       <c r="F89" t="n">
-        <v>-6.510231012729082</v>
+        <v>-6.360915854006633</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.918389932889043</v>
+        <v>-4.918961946692471</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.144768343318094</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.77852847656711</v>
+        <v>-22.7848841854941</v>
       </c>
       <c r="F90" t="n">
-        <v>-6.723406379147175</v>
+        <v>-6.551132444177692</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.043020495940438</v>
+        <v>-5.03431806371733</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.388208015214574</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.15306786819338</v>
+        <v>-24.11721189183143</v>
       </c>
       <c r="F91" t="n">
-        <v>-6.627464508390835</v>
+        <v>-6.483400143043452</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.841759639257018</v>
+        <v>-4.855219075161634</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.667482124326328</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.83480311729539</v>
+        <v>-25.81983786727576</v>
       </c>
       <c r="F92" t="n">
-        <v>-6.779908631508111</v>
+        <v>-6.639085677713492</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.096921796648176</v>
+        <v>-5.072246978990856</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.979797842991672</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.48118106873586</v>
+        <v>-27.45661869823648</v>
       </c>
       <c r="F93" t="n">
-        <v>-6.695578152060694</v>
+        <v>-6.5414375435606</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.156054334703512</v>
+        <v>-5.125571376888297</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.31974972179641</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.12807236589736</v>
+        <v>-29.08908009163028</v>
       </c>
       <c r="F94" t="n">
-        <v>-7.069513842276685</v>
+        <v>-6.890590857968198</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.229599665002514</v>
+        <v>-5.157829044196202</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.683714554968238</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.25426967377404</v>
+        <v>-31.21972395125242</v>
       </c>
       <c r="F95" t="n">
-        <v>-7.004768724338129</v>
+        <v>-6.792043146551793</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.130294157521737</v>
+        <v>-5.052490502241652</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.061741135484166</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.08412471941953</v>
+        <v>-33.05937901116264</v>
       </c>
       <c r="F96" t="n">
-        <v>-7.268476865732655</v>
+        <v>-7.095841144255021</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.348803430431634</v>
+        <v>-5.244990258619562</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.438486424204313</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.08721927889072</v>
+        <v>-35.07981732249421</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.459055242411867</v>
+        <v>-7.242618908413542</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.201561210620756</v>
+        <v>-5.079404485044019</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.797129281881048</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.93793082783048</v>
+        <v>-36.91884658952547</v>
       </c>
       <c r="F98" t="n">
-        <v>-7.35673810670107</v>
+        <v>-7.154421224534397</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.495468747432215</v>
+        <v>-5.341279248863452</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.119107497480023</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.00909014090286</v>
+        <v>-38.97613090110955</v>
       </c>
       <c r="F99" t="n">
-        <v>-7.393366546147997</v>
+        <v>-7.247688808534533</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.830737282337775</v>
+        <v>-5.624279411354824</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.383366220232737</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.55096059061837</v>
+        <v>-41.47728325713397</v>
       </c>
       <c r="F100" t="n">
-        <v>-7.129189060094248</v>
+        <v>-6.952441683841539</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.401910176585714</v>
+        <v>-6.132760570548313</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.57267210976583</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.64100858172108</v>
+        <v>-43.54969904497115</v>
       </c>
       <c r="F101" t="n">
-        <v>-7.016023218145768</v>
+        <v>-6.860083455118649</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.032992960980829</v>
+        <v>-6.740151227666358</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.672107135733138</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.0009810864496</v>
+        <v>-45.88726278672516</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.11411625192355</v>
+        <v>-6.920276907664105</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.53874605434258</v>
+        <v>-7.204083756288518</v>
       </c>
     </row>
   </sheetData>
